--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_36ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_36ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1877,28 +1877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>431.9549617725028</v>
+        <v>559.1384184793269</v>
       </c>
       <c r="AB2" t="n">
-        <v>591.0198352051117</v>
+        <v>765.037851609498</v>
       </c>
       <c r="AC2" t="n">
-        <v>534.6137316346835</v>
+        <v>692.0237127892553</v>
       </c>
       <c r="AD2" t="n">
-        <v>431954.9617725027</v>
+        <v>559138.4184793269</v>
       </c>
       <c r="AE2" t="n">
-        <v>591019.8352051117</v>
+        <v>765037.851609498</v>
       </c>
       <c r="AF2" t="n">
         <v>5.957868820787898e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.3425925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>534613.7316346836</v>
+        <v>692023.7127892553</v>
       </c>
     </row>
     <row r="3">
@@ -1983,28 +1983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>288.7253171651319</v>
+        <v>376.7888542093434</v>
       </c>
       <c r="AB3" t="n">
-        <v>395.0467166073487</v>
+        <v>515.5391330802975</v>
       </c>
       <c r="AC3" t="n">
-        <v>357.3440124258917</v>
+        <v>466.3368017828308</v>
       </c>
       <c r="AD3" t="n">
-        <v>288725.3171651319</v>
+        <v>376788.8542093434</v>
       </c>
       <c r="AE3" t="n">
-        <v>395046.7166073488</v>
+        <v>515539.1330802975</v>
       </c>
       <c r="AF3" t="n">
         <v>8.210562956463978e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.12037037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>357344.0124258917</v>
+        <v>466336.8017828309</v>
       </c>
     </row>
     <row r="4">
@@ -2089,28 +2089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>252.9001165305377</v>
+        <v>340.996807963676</v>
       </c>
       <c r="AB4" t="n">
-        <v>346.0290966026274</v>
+        <v>466.5668763733377</v>
       </c>
       <c r="AC4" t="n">
-        <v>313.0045652778632</v>
+        <v>422.0383885229892</v>
       </c>
       <c r="AD4" t="n">
-        <v>252900.1165305377</v>
+        <v>340996.807963676</v>
       </c>
       <c r="AE4" t="n">
-        <v>346029.0966026274</v>
+        <v>466566.8763733376</v>
       </c>
       <c r="AF4" t="n">
         <v>8.886289833304449e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.66203703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>313004.5652778632</v>
+        <v>422038.3885229892</v>
       </c>
     </row>
     <row r="5">
@@ -2195,28 +2195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>253.2736701901492</v>
+        <v>341.3703616232875</v>
       </c>
       <c r="AB5" t="n">
-        <v>346.540209199732</v>
+        <v>467.0779889704424</v>
       </c>
       <c r="AC5" t="n">
-        <v>313.4668980060513</v>
+        <v>422.5007212511774</v>
       </c>
       <c r="AD5" t="n">
-        <v>253273.6701901492</v>
+        <v>341370.3616232876</v>
       </c>
       <c r="AE5" t="n">
-        <v>346540.2091997321</v>
+        <v>467077.9889704424</v>
       </c>
       <c r="AF5" t="n">
         <v>8.882221640186805e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.67361111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>313466.8980060513</v>
+        <v>422500.7212511774</v>
       </c>
     </row>
   </sheetData>
@@ -2492,28 +2492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>343.153917933561</v>
+        <v>459.2863423160775</v>
       </c>
       <c r="AB2" t="n">
-        <v>469.5183293991096</v>
+        <v>628.415835840241</v>
       </c>
       <c r="AC2" t="n">
-        <v>424.7081590143719</v>
+        <v>568.4407104548127</v>
       </c>
       <c r="AD2" t="n">
-        <v>343153.917933561</v>
+        <v>459286.3423160775</v>
       </c>
       <c r="AE2" t="n">
-        <v>469518.3293991096</v>
+        <v>628415.8358402411</v>
       </c>
       <c r="AF2" t="n">
         <v>7.479013622438845e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.96296296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>424708.1590143719</v>
+        <v>568440.7104548127</v>
       </c>
     </row>
     <row r="3">
@@ -2598,28 +2598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>245.8016836930554</v>
+        <v>342.538844356578</v>
       </c>
       <c r="AB3" t="n">
-        <v>336.316707633634</v>
+        <v>468.6767585959504</v>
       </c>
       <c r="AC3" t="n">
-        <v>304.2191130806438</v>
+        <v>423.9469065475141</v>
       </c>
       <c r="AD3" t="n">
-        <v>245801.6836930554</v>
+        <v>342538.844356578</v>
       </c>
       <c r="AE3" t="n">
-        <v>336316.707633634</v>
+        <v>468676.7585959504</v>
       </c>
       <c r="AF3" t="n">
         <v>9.631687556261735e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.83564814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>304219.1130806438</v>
+        <v>423946.9065475141</v>
       </c>
     </row>
     <row r="4">
@@ -2704,28 +2704,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>245.4490440981282</v>
+        <v>332.5739864491043</v>
       </c>
       <c r="AB4" t="n">
-        <v>335.8342105824939</v>
+        <v>455.0424003884408</v>
       </c>
       <c r="AC4" t="n">
-        <v>303.7826648708755</v>
+        <v>411.6137923513872</v>
       </c>
       <c r="AD4" t="n">
-        <v>245449.0440981282</v>
+        <v>332573.9864491043</v>
       </c>
       <c r="AE4" t="n">
-        <v>335834.2105824939</v>
+        <v>455042.4003884408</v>
       </c>
       <c r="AF4" t="n">
         <v>9.676794592095905e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.74305555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>303782.6648708755</v>
+        <v>411613.7923513872</v>
       </c>
     </row>
   </sheetData>
@@ -3001,28 +3001,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>247.5038759026817</v>
+        <v>340.9572080734648</v>
       </c>
       <c r="AB2" t="n">
-        <v>338.6457221102639</v>
+        <v>466.5126940565268</v>
       </c>
       <c r="AC2" t="n">
-        <v>306.3258496844173</v>
+        <v>421.9893772904495</v>
       </c>
       <c r="AD2" t="n">
-        <v>247503.8759026817</v>
+        <v>340957.2080734647</v>
       </c>
       <c r="AE2" t="n">
-        <v>338645.7221102639</v>
+        <v>466512.6940565268</v>
       </c>
       <c r="AF2" t="n">
         <v>1.244198520355987e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.27083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>306325.8496844173</v>
+        <v>421989.3772904495</v>
       </c>
     </row>
   </sheetData>
@@ -3298,28 +3298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>246.2377824743228</v>
+        <v>341.0293183403339</v>
       </c>
       <c r="AB2" t="n">
-        <v>336.9133972254841</v>
+        <v>466.6113585049376</v>
       </c>
       <c r="AC2" t="n">
-        <v>304.7588554553072</v>
+        <v>422.0786253423803</v>
       </c>
       <c r="AD2" t="n">
-        <v>246237.7824743228</v>
+        <v>341029.3183403339</v>
       </c>
       <c r="AE2" t="n">
-        <v>336913.3972254841</v>
+        <v>466611.3585049376</v>
       </c>
       <c r="AF2" t="n">
         <v>1.10773163649148e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.73842592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>304758.8554553072</v>
+        <v>422078.6253423804</v>
       </c>
     </row>
     <row r="3">
@@ -3404,28 +3404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>243.5888713444833</v>
+        <v>328.8646826930919</v>
       </c>
       <c r="AB3" t="n">
-        <v>333.2890401559281</v>
+        <v>449.9671673465322</v>
       </c>
       <c r="AC3" t="n">
-        <v>301.4804019376513</v>
+        <v>407.0229324278642</v>
       </c>
       <c r="AD3" t="n">
-        <v>243588.8713444833</v>
+        <v>328864.6826930919</v>
       </c>
       <c r="AE3" t="n">
-        <v>333289.0401559282</v>
+        <v>449967.1673465322</v>
       </c>
       <c r="AF3" t="n">
         <v>1.130652819585503e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.35648148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>301480.4019376513</v>
+        <v>407022.9324278642</v>
       </c>
     </row>
   </sheetData>
@@ -3701,28 +3701,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>254.8655225654453</v>
+        <v>356.5950322496167</v>
       </c>
       <c r="AB2" t="n">
-        <v>348.7182518471816</v>
+        <v>487.9090549864503</v>
       </c>
       <c r="AC2" t="n">
-        <v>315.437071320131</v>
+        <v>441.3436995632022</v>
       </c>
       <c r="AD2" t="n">
-        <v>254865.5225654453</v>
+        <v>356595.0322496167</v>
       </c>
       <c r="AE2" t="n">
-        <v>348718.2518471816</v>
+        <v>487909.0549864502</v>
       </c>
       <c r="AF2" t="n">
         <v>1.327092173494761e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.68287037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>315437.071320131</v>
+        <v>441343.6995632022</v>
       </c>
     </row>
   </sheetData>
@@ -3998,28 +3998,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>364.6193056715191</v>
+        <v>490.7670479187054</v>
       </c>
       <c r="AB2" t="n">
-        <v>498.8882198882559</v>
+        <v>671.4891260764688</v>
       </c>
       <c r="AC2" t="n">
-        <v>451.2750283761343</v>
+        <v>607.4031463246374</v>
       </c>
       <c r="AD2" t="n">
-        <v>364619.3056715191</v>
+        <v>490767.0479187054</v>
       </c>
       <c r="AE2" t="n">
-        <v>498888.2198882559</v>
+        <v>671489.1260764687</v>
       </c>
       <c r="AF2" t="n">
         <v>7.04437107226095e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.78472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>451275.0283761343</v>
+        <v>607403.1463246375</v>
       </c>
     </row>
     <row r="3">
@@ -4104,28 +4104,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>260.5087486311192</v>
+        <v>347.8217871128556</v>
       </c>
       <c r="AB3" t="n">
-        <v>356.4395627119644</v>
+        <v>475.9051139420749</v>
       </c>
       <c r="AC3" t="n">
-        <v>322.421471112802</v>
+        <v>430.485397804465</v>
       </c>
       <c r="AD3" t="n">
-        <v>260508.7486311192</v>
+        <v>347821.7871128556</v>
       </c>
       <c r="AE3" t="n">
-        <v>356439.5627119644</v>
+        <v>475905.1139420749</v>
       </c>
       <c r="AF3" t="n">
         <v>9.269709482768e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.0787037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>322421.471112802</v>
+        <v>430485.397804465</v>
       </c>
     </row>
     <row r="4">
@@ -4210,28 +4210,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>246.7549467660075</v>
+        <v>334.1353050554515</v>
       </c>
       <c r="AB4" t="n">
-        <v>337.6210042250451</v>
+        <v>457.1786653861606</v>
       </c>
       <c r="AC4" t="n">
-        <v>305.3989294359628</v>
+        <v>413.5461752159915</v>
       </c>
       <c r="AD4" t="n">
-        <v>246754.9467660075</v>
+        <v>334135.3050554515</v>
       </c>
       <c r="AE4" t="n">
-        <v>337621.0042250451</v>
+        <v>457178.6653861606</v>
       </c>
       <c r="AF4" t="n">
         <v>9.486176456787653e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.66203703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>305398.9294359628</v>
+        <v>413546.1752159914</v>
       </c>
     </row>
   </sheetData>
@@ -4507,28 +4507,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>263.4663171404708</v>
+        <v>373.6722066604511</v>
       </c>
       <c r="AB2" t="n">
-        <v>360.4862384251732</v>
+        <v>511.2747984071172</v>
       </c>
       <c r="AC2" t="n">
-        <v>326.0819377754871</v>
+        <v>462.4794492258276</v>
       </c>
       <c r="AD2" t="n">
-        <v>263466.3171404708</v>
+        <v>373672.2066604511</v>
       </c>
       <c r="AE2" t="n">
-        <v>360486.2384251732</v>
+        <v>511274.7984071172</v>
       </c>
       <c r="AF2" t="n">
         <v>1.373465203216117e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.875</v>
       </c>
       <c r="AH2" t="n">
-        <v>326081.9377754871</v>
+        <v>462479.4492258276</v>
       </c>
     </row>
   </sheetData>
@@ -4804,28 +4804,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>292.57442608254</v>
+        <v>398.0131422832828</v>
       </c>
       <c r="AB2" t="n">
-        <v>400.3132372388473</v>
+        <v>544.5791403725668</v>
       </c>
       <c r="AC2" t="n">
-        <v>362.1079037199281</v>
+        <v>492.6052715370322</v>
       </c>
       <c r="AD2" t="n">
-        <v>292574.42608254</v>
+        <v>398013.1422832828</v>
       </c>
       <c r="AE2" t="n">
-        <v>400313.2372388473</v>
+        <v>544579.1403725669</v>
       </c>
       <c r="AF2" t="n">
         <v>9.020904820829129e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.70601851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>362107.9037199281</v>
+        <v>492605.2715370322</v>
       </c>
     </row>
     <row r="3">
@@ -4910,28 +4910,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>239.6448271084996</v>
+        <v>335.4609341068715</v>
       </c>
       <c r="AB3" t="n">
-        <v>327.8926248333065</v>
+        <v>458.9924495369397</v>
       </c>
       <c r="AC3" t="n">
-        <v>296.5990129195025</v>
+        <v>415.1868543530823</v>
       </c>
       <c r="AD3" t="n">
-        <v>239644.8271084996</v>
+        <v>335460.9341068715</v>
       </c>
       <c r="AE3" t="n">
-        <v>327892.6248333065</v>
+        <v>458992.4495369397</v>
       </c>
       <c r="AF3" t="n">
         <v>1.038439864399458e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.98611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>296599.0129195025</v>
+        <v>415186.8543530822</v>
       </c>
     </row>
   </sheetData>
@@ -5207,28 +5207,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>332.7617344421315</v>
+        <v>438.8564094021565</v>
       </c>
       <c r="AB2" t="n">
-        <v>455.2992854753576</v>
+        <v>600.4627003223851</v>
       </c>
       <c r="AC2" t="n">
-        <v>411.8461606861491</v>
+        <v>543.1553829583087</v>
       </c>
       <c r="AD2" t="n">
-        <v>332761.7344421315</v>
+        <v>438856.4094021565</v>
       </c>
       <c r="AE2" t="n">
-        <v>455299.2854753576</v>
+        <v>600462.7003223851</v>
       </c>
       <c r="AF2" t="n">
         <v>7.929835410807672e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>411846.1606861491</v>
+        <v>543155.3829583087</v>
       </c>
     </row>
     <row r="3">
@@ -5313,28 +5313,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>242.769002248193</v>
+        <v>329.6288161490656</v>
       </c>
       <c r="AB3" t="n">
-        <v>332.1672590883126</v>
+        <v>451.0126884521842</v>
       </c>
       <c r="AC3" t="n">
-        <v>300.465682080699</v>
+        <v>407.9686704665909</v>
       </c>
       <c r="AD3" t="n">
-        <v>242769.002248193</v>
+        <v>329628.8161490656</v>
       </c>
       <c r="AE3" t="n">
-        <v>332167.2590883126</v>
+        <v>451012.6884521843</v>
       </c>
       <c r="AF3" t="n">
         <v>9.92287854545795e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.76620370370371</v>
       </c>
       <c r="AH3" t="n">
-        <v>300465.682080699</v>
+        <v>407968.6704665909</v>
       </c>
     </row>
     <row r="4">
@@ -5419,28 +5419,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>243.2541477899503</v>
+        <v>330.1139616908229</v>
       </c>
       <c r="AB4" t="n">
-        <v>332.8310566216553</v>
+        <v>451.6764859855273</v>
       </c>
       <c r="AC4" t="n">
-        <v>301.0661277091054</v>
+        <v>408.5691160949972</v>
       </c>
       <c r="AD4" t="n">
-        <v>243254.1477899503</v>
+        <v>330113.9616908228</v>
       </c>
       <c r="AE4" t="n">
-        <v>332831.0566216553</v>
+        <v>451676.4859855273</v>
       </c>
       <c r="AF4" t="n">
         <v>9.914350203168624e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.77777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>301066.1277091054</v>
+        <v>408569.1160949973</v>
       </c>
     </row>
   </sheetData>
@@ -5716,28 +5716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>408.9547116459609</v>
+        <v>535.7700811175011</v>
       </c>
       <c r="AB2" t="n">
-        <v>559.5498782825555</v>
+        <v>733.0642614927639</v>
       </c>
       <c r="AC2" t="n">
-        <v>506.1472232324542</v>
+        <v>663.1016372380466</v>
       </c>
       <c r="AD2" t="n">
-        <v>408954.7116459609</v>
+        <v>535770.0811175011</v>
       </c>
       <c r="AE2" t="n">
-        <v>559549.8782825555</v>
+        <v>733064.2614927639</v>
       </c>
       <c r="AF2" t="n">
         <v>6.289806801998327e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.47453703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>506147.2232324542</v>
+        <v>663101.6372380466</v>
       </c>
     </row>
     <row r="3">
@@ -5822,28 +5822,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>272.093390284817</v>
+        <v>369.6875746337481</v>
       </c>
       <c r="AB3" t="n">
-        <v>372.2901805008734</v>
+        <v>505.8228490786237</v>
       </c>
       <c r="AC3" t="n">
-        <v>336.7593281864193</v>
+        <v>457.5478262893866</v>
       </c>
       <c r="AD3" t="n">
-        <v>272093.390284817</v>
+        <v>369687.5746337481</v>
       </c>
       <c r="AE3" t="n">
-        <v>372290.1805008734</v>
+        <v>505822.8490786238</v>
       </c>
       <c r="AF3" t="n">
         <v>8.56204502182089e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.71527777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>336759.3281864193</v>
+        <v>457547.8262893866</v>
       </c>
     </row>
     <row r="4">
@@ -5928,28 +5928,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>250.775473554084</v>
+        <v>338.6409883450278</v>
       </c>
       <c r="AB4" t="n">
-        <v>343.1220663496122</v>
+        <v>463.3435400396768</v>
       </c>
       <c r="AC4" t="n">
-        <v>310.3749779121522</v>
+        <v>419.122682885032</v>
       </c>
       <c r="AD4" t="n">
-        <v>250775.473554084</v>
+        <v>338640.9883450278</v>
       </c>
       <c r="AE4" t="n">
-        <v>343122.0663496121</v>
+        <v>463343.5400396768</v>
       </c>
       <c r="AF4" t="n">
         <v>9.075108742204881e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.66203703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>310374.9779121522</v>
+        <v>419122.682885032</v>
       </c>
     </row>
   </sheetData>
@@ -6225,28 +6225,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>264.5284850788842</v>
+        <v>359.6244197444596</v>
       </c>
       <c r="AB2" t="n">
-        <v>361.9395434580527</v>
+        <v>492.0539966040383</v>
       </c>
       <c r="AC2" t="n">
-        <v>327.3965414157551</v>
+        <v>445.0930537702697</v>
       </c>
       <c r="AD2" t="n">
-        <v>264528.4850788842</v>
+        <v>359624.4197444596</v>
       </c>
       <c r="AE2" t="n">
-        <v>361939.5434580527</v>
+        <v>492053.9966040383</v>
       </c>
       <c r="AF2" t="n">
         <v>1.03119389326066e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.375</v>
       </c>
       <c r="AH2" t="n">
-        <v>327396.5414157551</v>
+        <v>445093.0537702697</v>
       </c>
     </row>
     <row r="3">
@@ -6331,28 +6331,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>245.2557197798245</v>
+        <v>330.8660778749777</v>
       </c>
       <c r="AB3" t="n">
-        <v>335.569695721324</v>
+        <v>452.7055645297123</v>
       </c>
       <c r="AC3" t="n">
-        <v>303.5433949368066</v>
+        <v>409.4999808272461</v>
       </c>
       <c r="AD3" t="n">
-        <v>245255.7197798245</v>
+        <v>330866.0778749777</v>
       </c>
       <c r="AE3" t="n">
-        <v>335569.695721324</v>
+        <v>452705.5645297123</v>
       </c>
       <c r="AF3" t="n">
         <v>1.099590375193278e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.17129629629629</v>
       </c>
       <c r="AH3" t="n">
-        <v>303543.3949368066</v>
+        <v>409499.9808272461</v>
       </c>
     </row>
   </sheetData>
@@ -6628,28 +6628,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>239.9932814791899</v>
+        <v>333.9684497468802</v>
       </c>
       <c r="AB2" t="n">
-        <v>328.3693954760067</v>
+        <v>456.9503665918367</v>
       </c>
       <c r="AC2" t="n">
-        <v>297.0302812412153</v>
+        <v>413.3396649381785</v>
       </c>
       <c r="AD2" t="n">
-        <v>239993.2814791899</v>
+        <v>333968.4497468802</v>
       </c>
       <c r="AE2" t="n">
-        <v>328369.3954760067</v>
+        <v>456950.3665918367</v>
       </c>
       <c r="AF2" t="n">
         <v>1.201425913060254e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.90046296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>297030.2812412153</v>
+        <v>413339.6649381785</v>
       </c>
     </row>
   </sheetData>
@@ -10994,28 +10994,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>246.31707824055</v>
+        <v>348.6143889971668</v>
       </c>
       <c r="AB2" t="n">
-        <v>337.0218931911184</v>
+        <v>476.9895868073166</v>
       </c>
       <c r="AC2" t="n">
-        <v>304.8569967182563</v>
+        <v>431.4663701015153</v>
       </c>
       <c r="AD2" t="n">
-        <v>246317.0782405499</v>
+        <v>348614.3889971668</v>
       </c>
       <c r="AE2" t="n">
-        <v>337021.8931911184</v>
+        <v>476989.5868073166</v>
       </c>
       <c r="AF2" t="n">
         <v>1.285603889039513e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.83796296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>304856.9967182563</v>
+        <v>431466.3701015153</v>
       </c>
     </row>
   </sheetData>
@@ -11291,28 +11291,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>291.9867857589799</v>
+        <v>401.3320513775428</v>
       </c>
       <c r="AB2" t="n">
-        <v>399.5092018232912</v>
+        <v>549.120218215269</v>
       </c>
       <c r="AC2" t="n">
-        <v>361.3806043159618</v>
+        <v>496.7129552838696</v>
       </c>
       <c r="AD2" t="n">
-        <v>291986.7857589799</v>
+        <v>401332.0513775428</v>
       </c>
       <c r="AE2" t="n">
-        <v>399509.2018232911</v>
+        <v>549120.218215269</v>
       </c>
       <c r="AF2" t="n">
         <v>1.403741624684398e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.02777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>361380.6043159618</v>
+        <v>496712.9552838696</v>
       </c>
     </row>
   </sheetData>
@@ -11588,28 +11588,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>312.6135363074228</v>
+        <v>418.3368381953267</v>
       </c>
       <c r="AB2" t="n">
-        <v>427.731631911681</v>
+        <v>572.3869177376088</v>
       </c>
       <c r="AC2" t="n">
-        <v>386.9095252871452</v>
+        <v>517.7591136588152</v>
       </c>
       <c r="AD2" t="n">
-        <v>312613.5363074228</v>
+        <v>418336.8381953267</v>
       </c>
       <c r="AE2" t="n">
-        <v>427731.631911681</v>
+        <v>572386.9177376088</v>
       </c>
       <c r="AF2" t="n">
         <v>8.440333828183135e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.46990740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>386909.5252871452</v>
+        <v>517759.1136588152</v>
       </c>
     </row>
     <row r="3">
@@ -11694,28 +11694,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>241.0873044060356</v>
+        <v>337.223325490649</v>
       </c>
       <c r="AB3" t="n">
-        <v>329.8662859094014</v>
+        <v>461.4038311794444</v>
       </c>
       <c r="AC3" t="n">
-        <v>298.3843105525462</v>
+        <v>417.3680971160218</v>
       </c>
       <c r="AD3" t="n">
-        <v>241087.3044060356</v>
+        <v>337223.325490649</v>
       </c>
       <c r="AE3" t="n">
-        <v>329866.2859094014</v>
+        <v>461403.8311794444</v>
       </c>
       <c r="AF3" t="n">
         <v>1.016062672509451e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.83564814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>298384.3105525462</v>
+        <v>417368.0971160218</v>
       </c>
     </row>
   </sheetData>
@@ -11991,28 +11991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>386.5371605862651</v>
+        <v>513.0752694759633</v>
       </c>
       <c r="AB2" t="n">
-        <v>528.8771959301266</v>
+        <v>702.0122189803851</v>
       </c>
       <c r="AC2" t="n">
-        <v>478.401898634361</v>
+        <v>635.0131580812338</v>
       </c>
       <c r="AD2" t="n">
-        <v>386537.1605862651</v>
+        <v>513075.2694759633</v>
       </c>
       <c r="AE2" t="n">
-        <v>528877.1959301266</v>
+        <v>702012.2189803851</v>
       </c>
       <c r="AF2" t="n">
         <v>6.649642681168973e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.62962962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>478401.898634361</v>
+        <v>635013.1580812337</v>
       </c>
     </row>
     <row r="3">
@@ -12097,28 +12097,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>267.1044960997492</v>
+        <v>354.6641354286841</v>
       </c>
       <c r="AB3" t="n">
-        <v>365.4641553823857</v>
+        <v>485.2671167708947</v>
       </c>
       <c r="AC3" t="n">
-        <v>330.5847693248537</v>
+        <v>438.9539042229557</v>
       </c>
       <c r="AD3" t="n">
-        <v>267104.4960997492</v>
+        <v>354664.1354286841</v>
       </c>
       <c r="AE3" t="n">
-        <v>365464.1553823857</v>
+        <v>485267.1167708947</v>
       </c>
       <c r="AF3" t="n">
         <v>8.866850545964227e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.47222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>330584.7693248537</v>
+        <v>438953.9042229557</v>
       </c>
     </row>
     <row r="4">
@@ -12203,28 +12203,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>248.5426230841439</v>
+        <v>336.1695822207863</v>
       </c>
       <c r="AB4" t="n">
-        <v>340.066981830231</v>
+        <v>459.9620531497462</v>
       </c>
       <c r="AC4" t="n">
-        <v>307.6114663714617</v>
+        <v>416.0639203579297</v>
       </c>
       <c r="AD4" t="n">
-        <v>248542.6230841439</v>
+        <v>336169.5822207863</v>
       </c>
       <c r="AE4" t="n">
-        <v>340066.981830231</v>
+        <v>459962.0531497462</v>
       </c>
       <c r="AF4" t="n">
         <v>9.289068048743363e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.62731481481482</v>
       </c>
       <c r="AH4" t="n">
-        <v>307611.4663714617</v>
+        <v>416063.9203579297</v>
       </c>
     </row>
   </sheetData>
@@ -12500,28 +12500,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>333.3559217891608</v>
+        <v>468.7667967364373</v>
       </c>
       <c r="AB2" t="n">
-        <v>456.1122788172586</v>
+        <v>641.3874118263078</v>
       </c>
       <c r="AC2" t="n">
-        <v>412.5815630845426</v>
+        <v>580.1742974344904</v>
       </c>
       <c r="AD2" t="n">
-        <v>333355.9217891608</v>
+        <v>468766.7967364373</v>
       </c>
       <c r="AE2" t="n">
-        <v>456112.2788172587</v>
+        <v>641387.4118263078</v>
       </c>
       <c r="AF2" t="n">
         <v>1.376071621854535e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.87731481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>412581.5630845426</v>
+        <v>580174.2974344904</v>
       </c>
     </row>
   </sheetData>
@@ -12797,28 +12797,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>241.9589267228955</v>
+        <v>336.355839909263</v>
       </c>
       <c r="AB2" t="n">
-        <v>331.0588780165911</v>
+        <v>460.2168991362293</v>
       </c>
       <c r="AC2" t="n">
-        <v>299.4630833428397</v>
+        <v>416.2944442011415</v>
       </c>
       <c r="AD2" t="n">
-        <v>241958.9267228954</v>
+        <v>336355.839909263</v>
       </c>
       <c r="AE2" t="n">
-        <v>331058.8780165911</v>
+        <v>460216.8991362293</v>
       </c>
       <c r="AF2" t="n">
         <v>1.160914059871412e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.65740740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>299463.0833428397</v>
+        <v>416294.4442011415</v>
       </c>
     </row>
     <row r="3">
@@ -12903,28 +12903,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>241.8241911603045</v>
+        <v>336.2211043466721</v>
       </c>
       <c r="AB3" t="n">
-        <v>330.8745268757409</v>
+        <v>460.0325479953789</v>
       </c>
       <c r="AC3" t="n">
-        <v>299.2963264161336</v>
+        <v>416.1276872744354</v>
       </c>
       <c r="AD3" t="n">
-        <v>241824.1911603045</v>
+        <v>336221.1043466721</v>
       </c>
       <c r="AE3" t="n">
-        <v>330874.5268757408</v>
+        <v>460032.5479953789</v>
       </c>
       <c r="AF3" t="n">
         <v>1.165274388330347e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.58796296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>299296.3264161336</v>
+        <v>416127.6872744354</v>
       </c>
     </row>
   </sheetData>
@@ -13200,28 +13200,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>283.4104103250364</v>
+        <v>378.8925700085539</v>
       </c>
       <c r="AB2" t="n">
-        <v>387.774626591589</v>
+        <v>518.4175298461682</v>
       </c>
       <c r="AC2" t="n">
-        <v>350.7659604747936</v>
+        <v>468.9404884012221</v>
       </c>
       <c r="AD2" t="n">
-        <v>283410.4103250364</v>
+        <v>378892.570008554</v>
       </c>
       <c r="AE2" t="n">
-        <v>387774.626591589</v>
+        <v>518417.5298461682</v>
       </c>
       <c r="AF2" t="n">
         <v>9.626520994980904e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.03472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>350765.9604747936</v>
+        <v>468940.488401222</v>
       </c>
     </row>
     <row r="3">
@@ -13306,28 +13306,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>247.2694256688144</v>
+        <v>333.1966374032127</v>
       </c>
       <c r="AB3" t="n">
-        <v>338.3249369570725</v>
+        <v>455.8943388932734</v>
       </c>
       <c r="AC3" t="n">
-        <v>306.0356798160215</v>
+        <v>412.3844230410219</v>
       </c>
       <c r="AD3" t="n">
-        <v>247269.4256688144</v>
+        <v>333196.6374032127</v>
       </c>
       <c r="AE3" t="n">
-        <v>338324.9369570725</v>
+        <v>455894.3388932734</v>
       </c>
       <c r="AF3" t="n">
         <v>1.068315540088663e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.05555555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>306035.6798160215</v>
+        <v>412384.4230410219</v>
       </c>
     </row>
   </sheetData>
